--- a/ortools/input_ver2.xlsx
+++ b/ortools/input_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baoda\Desktop\New folder\version 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{732798FB-75C9-4628-A8B2-08CB7F4CACFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C47A20D4-A47D-4970-B579-B4032380BFC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{74EFA913-AC5C-4AA7-95AE-A5907C212A09}"/>
   </bookViews>
@@ -16,9 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="a_time">Sheet1!$I$3:$I$27</definedName>
+    <definedName name="compare">Sheet1!$B$3:$I$17</definedName>
     <definedName name="machines">Sheet1!$B$3:$I$27</definedName>
+    <definedName name="o_infos">Sheet1!$K$3:$M$10</definedName>
     <definedName name="orders">Sheet1!$A$3:$I$27</definedName>
+    <definedName name="p_time">Sheet1!$B$3:$H$27</definedName>
+    <definedName name="quali">Sheet1!$N$3:$Q$10</definedName>
     <definedName name="small">Sheet1!$B$3:$I$6</definedName>
+    <definedName name="sub">Sheet1!$A$3:$A$27</definedName>
+    <definedName name="trial">Sheet1!$B$3:$H$11</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Order</t>
   </si>
@@ -60,6 +67,15 @@
   </si>
   <si>
     <t>Machining Shop</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>qualified groups</t>
+  </si>
+  <si>
+    <t>Duedate</t>
   </si>
 </sst>
 </file>
@@ -427,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA74B2-AAB1-4FB1-9295-DDE9B5FF0C16}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +461,7 @@
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
@@ -456,7 +472,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +500,20 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -513,10 +541,28 @@
       <c r="I3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -542,10 +588,31 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -571,10 +638,25 @@
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -600,10 +682,28 @@
       <c r="I6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -629,10 +729,28 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -658,10 +776,28 @@
       <c r="I8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -687,10 +823,31 @@
       <c r="I9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -716,10 +873,28 @@
       <c r="I10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -746,9 +921,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -775,9 +950,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -804,9 +979,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -833,9 +1008,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -862,9 +1037,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -893,7 +1068,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -922,7 +1097,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -951,7 +1126,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -980,7 +1155,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1009,7 +1184,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1038,7 +1213,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1067,7 +1242,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1096,7 +1271,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1125,7 +1300,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1154,7 +1329,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1183,7 +1358,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>3</v>
